--- a/interface/Pilots.xlsx
+++ b/interface/Pilots.xlsx
@@ -442,31 +442,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>29703</v>
+        <v>31527</v>
       </c>
       <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
         <v>57</v>
       </c>
-      <c r="E2">
-        <v>61</v>
-      </c>
       <c r="F2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -474,31 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>22949</v>
+        <v>29542</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>34293</v>
+        <v>28816</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>60</v>
       </c>
       <c r="J4">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -541,28 +541,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>23777</v>
+        <v>31992</v>
       </c>
       <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
         <v>54</v>
       </c>
-      <c r="E5">
-        <v>62</v>
-      </c>
       <c r="F5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -573,28 +573,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>25720</v>
+        <v>28307</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>31870</v>
+        <v>27104</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7">
         <v>58</v>
       </c>
-      <c r="H7">
-        <v>56</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -637,28 +637,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>30905</v>
+        <v>23126</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>29024</v>
+        <v>22288</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
         <v>70</v>
       </c>
-      <c r="I9">
-        <v>54</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -698,31 +698,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>30301</v>
+        <v>28762</v>
       </c>
       <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
+      </c>
+      <c r="I10">
         <v>58</v>
       </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>63</v>
-      </c>
-      <c r="G10">
-        <v>57</v>
-      </c>
-      <c r="H10">
-        <v>62</v>
-      </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
       <c r="J10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -730,31 +730,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>24710</v>
+        <v>22412</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -765,28 +765,28 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>30502</v>
+        <v>31879</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>66</v>
+      </c>
+      <c r="H12">
         <v>68</v>
       </c>
-      <c r="G12">
-        <v>61</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
       <c r="I12">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -797,28 +797,28 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>25996</v>
+        <v>23149</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G13">
+        <v>58</v>
+      </c>
+      <c r="H13">
         <v>56</v>
-      </c>
-      <c r="H13">
-        <v>61</v>
       </c>
       <c r="I13">
         <v>55</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -829,28 +829,28 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>31012</v>
+        <v>34234</v>
       </c>
       <c r="D14">
         <v>62</v>
       </c>
       <c r="E14">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F14">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>58</v>
+      </c>
+      <c r="I14">
         <v>54</v>
       </c>
-      <c r="H14">
-        <v>59</v>
-      </c>
-      <c r="I14">
-        <v>52</v>
-      </c>
       <c r="J14">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>31733</v>
+        <v>27928</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
         <v>51</v>
       </c>
-      <c r="F15">
-        <v>66</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
-        <v>67</v>
-      </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
       <c r="J15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -890,31 +890,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>22425</v>
+        <v>32830</v>
       </c>
       <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>61</v>
+      </c>
+      <c r="I16">
         <v>53</v>
       </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>58</v>
-      </c>
-      <c r="G16">
-        <v>64</v>
-      </c>
-      <c r="H16">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
       <c r="J16">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -925,28 +925,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>23129</v>
+        <v>33207</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I17">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -957,28 +957,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>28707</v>
+        <v>34451</v>
       </c>
       <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+      <c r="F18">
+        <v>66</v>
+      </c>
+      <c r="G18">
         <v>53</v>
       </c>
-      <c r="E18">
-        <v>53</v>
-      </c>
-      <c r="F18">
-        <v>61</v>
-      </c>
-      <c r="G18">
-        <v>60</v>
-      </c>
       <c r="H18">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -986,31 +986,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>25312</v>
+        <v>33353</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E19">
+        <v>56</v>
+      </c>
+      <c r="F19">
+        <v>64</v>
+      </c>
+      <c r="G19">
         <v>70</v>
       </c>
-      <c r="F19">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>55</v>
-      </c>
       <c r="H19">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I19">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1018,28 +1018,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>26023</v>
+        <v>31576</v>
       </c>
       <c r="D20">
         <v>52</v>
       </c>
       <c r="E20">
+        <v>52</v>
+      </c>
+      <c r="F20">
         <v>55</v>
-      </c>
-      <c r="F20">
-        <v>70</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
+        <v>53</v>
+      </c>
+      <c r="I20">
         <v>70</v>
-      </c>
-      <c r="I20">
-        <v>64</v>
       </c>
       <c r="J20">
         <v>-3</v>
@@ -1053,28 +1053,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>23123</v>
+        <v>29150</v>
       </c>
       <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <v>69</v>
+      </c>
+      <c r="H21">
         <v>60</v>
       </c>
-      <c r="E21">
-        <v>59</v>
-      </c>
-      <c r="F21">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>57</v>
-      </c>
-      <c r="H21">
-        <v>63</v>
-      </c>
       <c r="I21">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J21">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1082,31 +1082,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>25538</v>
+        <v>25099</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G22">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I22">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J22">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1117,28 +1117,28 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>25468</v>
+        <v>23813</v>
       </c>
       <c r="D23">
+        <v>54</v>
+      </c>
+      <c r="E23">
         <v>50</v>
       </c>
-      <c r="E23">
-        <v>52</v>
-      </c>
       <c r="F23">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I23">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1146,31 +1146,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>30752</v>
+        <v>24864</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G24">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I24">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1178,31 +1178,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>32830</v>
+        <v>27897</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F25">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G25">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1210,31 +1210,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>31609</v>
+        <v>28307</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>66</v>
       </c>
       <c r="F26">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G26">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I26">
         <v>52</v>
       </c>
       <c r="J26">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1242,31 +1242,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>26456</v>
+        <v>29883</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E27">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G27">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H27">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I27">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1277,28 +1277,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>22686</v>
+        <v>29877</v>
       </c>
       <c r="D28">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I28">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1306,31 +1306,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>34092</v>
+        <v>31133</v>
       </c>
       <c r="D29">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G29">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H29">
         <v>70</v>
       </c>
       <c r="I29">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1338,31 +1338,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>27137</v>
+        <v>31642</v>
       </c>
       <c r="D30">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F30">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H30">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1373,28 +1373,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>33554</v>
+        <v>31946</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G31">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I31">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1405,28 +1405,28 @@
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>29073</v>
+        <v>31954</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1437,28 +1437,28 @@
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>28913</v>
+        <v>29857</v>
       </c>
       <c r="D33">
         <v>54</v>
       </c>
       <c r="E33">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G33">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H33">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1466,31 +1466,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>24015</v>
+        <v>22162</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F34">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G34">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I34">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1501,28 +1501,28 @@
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>29987</v>
+        <v>26580</v>
       </c>
       <c r="D35">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E35">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>51</v>
       </c>
       <c r="G35">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I35">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1533,28 +1533,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>32410</v>
+        <v>27033</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36">
+        <v>65</v>
+      </c>
+      <c r="F36">
         <v>51</v>
       </c>
-      <c r="F36">
-        <v>63</v>
-      </c>
       <c r="G36">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I36">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J36">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1565,28 +1565,28 @@
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>25824</v>
+        <v>30920</v>
       </c>
       <c r="D37">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F37">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H37">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I37">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J37">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1594,31 +1594,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>22292</v>
+        <v>28706</v>
       </c>
       <c r="D38">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G38">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H38">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I38">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1629,28 +1629,28 @@
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>28967</v>
+        <v>25617</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E39">
+        <v>63</v>
+      </c>
+      <c r="F39">
+        <v>64</v>
+      </c>
+      <c r="G39">
         <v>52</v>
       </c>
-      <c r="F39">
-        <v>59</v>
-      </c>
-      <c r="G39">
-        <v>64</v>
-      </c>
       <c r="H39">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I39">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1661,28 +1661,28 @@
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>25495</v>
+        <v>34591</v>
       </c>
       <c r="D40">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H40">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I40">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J40">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1690,31 +1690,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>24929</v>
+        <v>27955</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G41">
+        <v>59</v>
+      </c>
+      <c r="H41">
         <v>64</v>
       </c>
-      <c r="H41">
-        <v>56</v>
-      </c>
       <c r="I41">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J41">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1725,28 +1725,28 @@
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>27964</v>
+        <v>28150</v>
       </c>
       <c r="D42">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G42">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H42">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I42">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1757,25 +1757,25 @@
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>32649</v>
+        <v>24799</v>
       </c>
       <c r="D43">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E43">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G43">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H43">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I43">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J43">
         <v>-3</v>
@@ -1786,31 +1786,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>29571</v>
+        <v>29449</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
       <c r="E44">
+        <v>51</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44">
         <v>63</v>
       </c>
-      <c r="F44">
-        <v>54</v>
-      </c>
-      <c r="G44">
+      <c r="H44">
         <v>57</v>
       </c>
-      <c r="H44">
-        <v>61</v>
-      </c>
       <c r="I44">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1821,28 +1821,28 @@
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>33090</v>
+        <v>29734</v>
       </c>
       <c r="D45">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>51</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H45">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I45">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1853,28 +1853,28 @@
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>32541</v>
+        <v>32559</v>
       </c>
       <c r="D46">
         <v>54</v>
       </c>
       <c r="E46">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I46">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J46">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1882,31 +1882,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>31187</v>
+        <v>22993</v>
       </c>
       <c r="D47">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E47">
+        <v>53</v>
+      </c>
+      <c r="F47">
+        <v>62</v>
+      </c>
+      <c r="G47">
+        <v>67</v>
+      </c>
+      <c r="H47">
+        <v>59</v>
+      </c>
+      <c r="I47">
         <v>61</v>
       </c>
-      <c r="F47">
-        <v>60</v>
-      </c>
-      <c r="G47">
-        <v>52</v>
-      </c>
-      <c r="H47">
-        <v>64</v>
-      </c>
-      <c r="I47">
-        <v>52</v>
-      </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1914,31 +1914,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>33089</v>
+        <v>24965</v>
       </c>
       <c r="D48">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F48">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G48">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I48">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J48">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1949,28 +1949,28 @@
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>34349</v>
+        <v>23781</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F49">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G49">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I49">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1981,28 +1981,28 @@
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>31317</v>
+        <v>22104</v>
       </c>
       <c r="D50">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>54</v>
       </c>
       <c r="F50">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I50">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2010,31 +2010,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>29599</v>
+        <v>30188</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E51">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F51">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G51">
+        <v>59</v>
+      </c>
+      <c r="H51">
         <v>61</v>
       </c>
-      <c r="H51">
-        <v>55</v>
-      </c>
       <c r="I51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J51">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
